--- a/K-Means.xlsx
+++ b/K-Means.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\UrcaDLML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDBB978-35B3-427C-9958-BFC8C7F7F081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C467C158-9747-4F88-B019-61AE33CA9164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2670" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="27">
   <si>
     <t>Disease Type</t>
   </si>
@@ -90,10 +90,22 @@
     <t>Leaf_Smut</t>
   </si>
   <si>
-    <t>All_Classes (No Split)</t>
-  </si>
-  <si>
     <t>Rice Leaves</t>
+  </si>
+  <si>
+    <t>K-Means</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>All_Classes</t>
+  </si>
+  <si>
+    <t>Run #1</t>
+  </si>
+  <si>
+    <t>Run #2</t>
   </si>
 </sst>
 </file>
@@ -139,7 +151,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -163,12 +175,29 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="thin">
         <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -177,12 +206,29 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -191,11 +237,87 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color auto="1"/>
-      </top>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -203,25 +325,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -504,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F33"/>
+  <dimension ref="B1:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:F27"/>
+      <selection activeCell="B2" sqref="B2:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,538 +663,1607 @@
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="31.42578125" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="19.42578125" customWidth="1"/>
+    <col min="18" max="18" width="34" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
+      <c r="M1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="15"/>
+    </row>
+    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
+      <c r="M2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="6"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="M3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.1997451890131083E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.3361176667518951E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.14646759033203119</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.17059326171875</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2">
+        <v>2.0365607840411481E-2</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
+        <v>0.9641571044921875</v>
+      </c>
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0.28392944335937498</v>
+      </c>
+      <c r="Q5">
+        <v>0.30353851318359382</v>
+      </c>
+      <c r="R5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5">
+        <v>0.41858542890434741</v>
+      </c>
+      <c r="T5">
+        <v>0.37983951182659581</v>
+      </c>
+      <c r="U5">
+        <v>0.9574961471557617</v>
+      </c>
+      <c r="V5">
+        <v>0.93511688232421875</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7.7472027947455405E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.1157463506259732</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.40341720581054691</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.43537750244140633</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
+        <v>0.40764296586214388</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
+        <v>0.95843124389648438</v>
+      </c>
+      <c r="M6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>5.8507630609190037E-2</v>
+      </c>
+      <c r="O6">
+        <v>8.0613905898767532E-2</v>
+      </c>
+      <c r="P6">
+        <v>0.22819557189941411</v>
+      </c>
+      <c r="Q6">
+        <v>0.21840820312500001</v>
+      </c>
+      <c r="R6" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0.99995117187500004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
-        <v>6.5879601410779254E-2</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5.4369309204795539E-2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.25182266235351558</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.24674072265624999</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3.1227765122832599E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3.6334974184514153E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.26582374572753908</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.29029388427734382</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="C7" s="2">
+        <v>0.1686541901714495</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.2477990047673731</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.24720230102539059</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.26143798828124998</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
+        <v>0.26299353852798041</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2">
+        <v>0.93845159357244323</v>
+      </c>
+      <c r="M7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2">
-        <v>0.10662641914929399</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.1153270278761877</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.34212722778320309</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.37462005615234367</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.28544540405273439</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.25850067138671867</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="N7">
+        <v>0.1090411104409215</v>
+      </c>
+      <c r="O7">
+        <v>0.12168713156861349</v>
+      </c>
+      <c r="P7">
+        <v>0.37083702087402343</v>
+      </c>
+      <c r="Q7">
+        <v>0.414093017578125</v>
+      </c>
+      <c r="R7" t="s">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>0.26299353852798041</v>
+      </c>
+      <c r="V7">
+        <v>0.93845159357244323</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.9384965489120771E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4.0349777483562693E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.2396522521972656</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.21908874511718751</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
+        <v>0.54314031197257184</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2">
+        <v>0.89163836310891542</v>
+      </c>
+      <c r="M8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
-        <v>0.17036756084254021</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.14934957678444269</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.1423366546630859</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.16872558593750001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4.404243972806654E-2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3.2148806932666217E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.23871002197265631</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.19488830566406251</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>0.21124211310563201</v>
+      </c>
+      <c r="O8">
+        <v>0.20819490979153241</v>
+      </c>
+      <c r="P8">
+        <v>0.32275886535644532</v>
+      </c>
+      <c r="Q8">
+        <v>0.28625946044921868</v>
+      </c>
+      <c r="R8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8">
+        <v>0.29912853658952537</v>
+      </c>
+      <c r="V8">
+        <v>0.87458190917968748</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2">
-        <v>9.6504312262687235E-3</v>
+        <v>5.5343755388303217E-2</v>
       </c>
       <c r="D9" s="2">
-        <v>8.3482288316713577E-3</v>
+        <v>5.4461702547564758E-2</v>
       </c>
       <c r="E9" s="2">
-        <v>0.17271232604980469</v>
+        <v>0.33191795349121089</v>
       </c>
       <c r="F9" s="2">
-        <v>0.17126007080078129</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.30662689208984367</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2">
+        <v>0.14271017048794829</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2">
+        <v>0.98022121853298616</v>
+      </c>
+      <c r="M9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>6.0773969485639033E-2</v>
+      </c>
+      <c r="O9">
+        <v>7.3345653988315246E-2</v>
+      </c>
+      <c r="P9">
+        <v>0.25030021667480468</v>
+      </c>
+      <c r="Q9">
+        <v>0.23241119384765621</v>
+      </c>
+      <c r="R9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T9">
+        <v>0.1208758779436936</v>
+      </c>
+      <c r="V9">
+        <v>0.94318008422851563</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2">
-        <v>4.5085358920619947E-2</v>
+        <v>0.16543657804296241</v>
       </c>
       <c r="D10" s="2">
-        <v>3.9493772122900388E-2</v>
+        <v>0.17780129404570541</v>
       </c>
       <c r="E10" s="2">
-        <v>9.8849487304687497E-2</v>
+        <v>0.28130912780761719</v>
       </c>
       <c r="F10" s="2">
-        <v>9.947967529296875E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.31448516845703117</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2">
+        <v>0.1315741724772545</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2">
+        <v>0.95739873250325525</v>
+      </c>
+      <c r="M10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>8.2663869335483191E-3</v>
+      </c>
+      <c r="O10">
+        <v>1.1070786306564349E-2</v>
+      </c>
+      <c r="P10">
+        <v>0.27537155151367188</v>
+      </c>
+      <c r="Q10">
+        <v>0.25043487548828119</v>
+      </c>
+      <c r="R10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <v>0.54314031197257184</v>
+      </c>
+      <c r="V10">
+        <v>0.89163836310891542</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.10767205641097009</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.1078477570818704</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.3511341094970703</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.317626953125</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
+        <v>0.29912853658952537</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2">
+        <v>0.87458190917968748</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11">
+        <v>3.3094983536431692E-2</v>
+      </c>
+      <c r="O11">
+        <v>2.7062869380778811E-2</v>
+      </c>
+      <c r="P11">
+        <v>0.29368247985839852</v>
+      </c>
+      <c r="Q11">
+        <v>0.25934600830078119</v>
+      </c>
+      <c r="R11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2">
-        <v>3.2096410132408187E-2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2.696742235170195E-2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.27329063415527338</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.21429748535156251</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="T11">
+        <v>0.14271017048794829</v>
+      </c>
+      <c r="V11">
+        <v>0.98022121853298616</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2">
-        <v>0.1001673655142275</v>
+        <v>0.1269088214410076</v>
       </c>
       <c r="D12" s="2">
-        <v>6.6917144319445288E-2</v>
+        <v>0.1237932352431677</v>
       </c>
       <c r="E12" s="2">
-        <v>0.19056015014648439</v>
+        <v>0.40237998962402338</v>
       </c>
       <c r="F12" s="2">
-        <v>0.22207946777343751</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.45872192382812499</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2">
+        <v>0.1208758779436936</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2">
+        <v>0.94318008422851563</v>
+      </c>
+      <c r="M12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <v>6.5326725837797958E-2</v>
+      </c>
+      <c r="O12">
+        <v>4.2052819522983537E-2</v>
+      </c>
+      <c r="P12">
+        <v>0.21915321350097661</v>
+      </c>
+      <c r="Q12">
+        <v>0.24835510253906251</v>
+      </c>
+      <c r="R12" t="s">
+        <v>14</v>
+      </c>
+      <c r="T12">
+        <v>0.35654620026197692</v>
+      </c>
+      <c r="V12">
+        <v>0.94919670952690971</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
       <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.20192031860351559</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.20443572998046869</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2">
+        <v>0.35654620026197692</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2">
+        <v>0.94919670952690971</v>
+      </c>
+      <c r="M13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <v>1.1566901587562769E-3</v>
+      </c>
+      <c r="O13">
+        <v>7.405064332639147E-4</v>
+      </c>
+      <c r="P13">
+        <v>0.13803825378417969</v>
+      </c>
+      <c r="Q13">
+        <v>0.16546173095703129</v>
+      </c>
+      <c r="R13" t="s">
+        <v>12</v>
+      </c>
+      <c r="T13">
+        <v>0.1315741724772545</v>
+      </c>
+      <c r="V13">
+        <v>0.95739873250325525</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6.9741982149478535E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7.0526514108491187E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.45541114807128907</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.51008453369140627</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2">
+        <v>0.99995117187500004</v>
+      </c>
+      <c r="M14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>4.0963095935923372E-2</v>
+      </c>
+      <c r="O14">
+        <v>4.3271711052816762E-2</v>
+      </c>
+      <c r="P14">
+        <v>0.1472064971923828</v>
+      </c>
+      <c r="Q14">
+        <v>0.16571044921875</v>
+      </c>
+      <c r="R14" t="s">
+        <v>7</v>
+      </c>
+      <c r="T14">
+        <v>0.40764296586214388</v>
+      </c>
+      <c r="V14">
+        <v>0.95843124389648438</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
         <v>8.4458247496910582E-2</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
         <v>0.2196031188964844</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="G15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.41858542890434741</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.37983951182659581</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.9574961471557617</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.93511688232421875</v>
+      </c>
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15">
+        <v>8.4458247496910582E-2</v>
+      </c>
+      <c r="Q15">
+        <v>0.2196031188964844</v>
+      </c>
+      <c r="R15" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15">
+        <v>2.0365607840411481E-2</v>
+      </c>
+      <c r="V15">
+        <v>0.9641571044921875</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="M16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2">
+        <v>8.3657123161628155E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4.5703044256113823E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.64706726074218746</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.5914154052734375</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2">
+        <v>0.1106319902978035</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2">
+        <v>0.9664306640625</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3.6834991590217361E-3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2.6555333077720499E-3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.47078819274902339</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.46417236328125</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2">
+        <v>0.24100669909149311</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2">
+        <v>0.95793279012044275</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="2">
-        <v>0.1979840611846318</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.27472814480917129</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.59725151062011717</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.63983306884765623</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2">
-        <v>5.1944650574010211E-3</v>
-      </c>
-      <c r="D17" s="2">
-        <v>4.4537373888909734E-3</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.36536026000976563</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.35194702148437501</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.1778594456113714</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.1197337921475853</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.69346580505371092</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.66275177001953123</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.36280441284179688</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.33895568847656249</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C20" s="2">
-        <v>0.28131355377334027</v>
+        <v>1.0882271634689879E-2</v>
       </c>
       <c r="D20" s="2">
-        <v>0.2896068335367124</v>
+        <v>5.7125767928468607E-3</v>
       </c>
       <c r="E20" s="2">
-        <v>0.69223861694335942</v>
+        <v>0.39125022888183592</v>
       </c>
       <c r="F20" s="2">
-        <v>0.70863647460937496</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.40137634277343748</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2">
+        <v>0.14971107055961069</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2">
+        <v>0.96897472034801135</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2">
-        <v>7.3204175178193123E-2</v>
+        <v>9.2507170330033434E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>8.827482810318979E-2</v>
+        <v>8.1543732053172505E-3</v>
       </c>
       <c r="E21" s="2">
-        <v>0.53305320739746098</v>
+        <v>0.42810745239257808</v>
       </c>
       <c r="F21" s="2">
-        <v>0.51562652587890623</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.45397033691406252</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2">
+        <v>0.46123334502103791</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2">
+        <v>0.93379929486443014</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="2">
-        <v>7.0987486423200082E-3</v>
+        <v>6.8361185578633535E-2</v>
       </c>
       <c r="D22" s="2">
-        <v>9.5794108122633E-3</v>
+        <v>4.9561939690301551E-2</v>
       </c>
       <c r="E22" s="2">
-        <v>0.38032188415527352</v>
+        <v>0.63119621276855464</v>
       </c>
       <c r="F22" s="2">
-        <v>0.34197692871093749</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.60140075683593752</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2">
+        <v>8.8372286450968979E-2</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2">
+        <v>0.96283467610677087</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2">
-        <v>9.9678417108155268E-2</v>
+        <v>0.28661338441787249</v>
       </c>
       <c r="D23" s="2">
-        <v>7.7003870720081899E-2</v>
+        <v>0.27245463013193849</v>
       </c>
       <c r="E23" s="2">
-        <v>0.74827613830566408</v>
+        <v>0.70281562805175779</v>
       </c>
       <c r="F23" s="2">
-        <v>0.73584136962890623</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.67462615966796879</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2">
+        <v>6.3256065418665949E-2</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2">
+        <v>0.96474965413411462</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C24" s="2">
-        <v>8.8174118008420115E-3</v>
+        <v>0.16129179931749721</v>
       </c>
       <c r="D24" s="2">
-        <v>8.1024860891873249E-3</v>
+        <v>0.1679281965699376</v>
       </c>
       <c r="E24" s="2">
-        <v>0.433746337890625</v>
+        <v>0.6785125732421875</v>
       </c>
       <c r="F24" s="2">
-        <v>0.44484100341796867</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.70025177001953121</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2">
+        <v>0.14592406096897109</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2">
+        <v>0.8978556315104167</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="2">
-        <v>5.3330364810279571E-2</v>
+        <v>5.4838812314662803E-2</v>
       </c>
       <c r="D25" s="2">
-        <v>7.1462657218565276E-2</v>
+        <v>4.0853140916808153E-2</v>
       </c>
       <c r="E25" s="2">
-        <v>0.43229217529296882</v>
+        <v>0.4334095001220703</v>
       </c>
       <c r="F25" s="2">
-        <v>0.40915832519531248</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.42071838378906251</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2">
+        <v>4.1190506090669349E-2</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2">
+        <v>0.94174957275390625</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.65092201232910152</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.60613861083984377</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2">
+        <v>0.65428770220907984</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2">
+        <v>0.93260701497395837</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2">
+        <v>6.9155440467749728E-3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>7.1853141243662967E-3</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.262664794921875</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.24457855224609379</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2">
+        <v>0.99394836425781252</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
+        <v>0.128231092689332</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2">
+        <v>0.61462988281249997</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.37051301503036371</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.33527857614313128</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.95552665710449214</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.94667633056640621</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2">
-        <v>0.128231092689332</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2">
-        <v>0.61462988281249997</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="M29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+      <c r="G30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2.681759433618544E-3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>7.741893422650335E-5</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.50400590896606445</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.53193855285644531</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="2">
-        <v>0.1415861349481512</v>
-      </c>
-      <c r="D29" s="2">
-        <v>9.6618452299177676E-2</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.58253574371337891</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0.56102371215820313</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+      <c r="H31" s="2"/>
+      <c r="I31" s="2">
+        <v>0.39879618364602681</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2">
+        <v>0.95224507649739587</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="2">
+        <v>8.0264556397022013E-2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>7.5498929275984381E-2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.64431667327880859</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.62368965148925781</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2">
+        <v>0.41418933623503812</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2">
+        <v>0.97718132866753471</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C33" s="2">
         <v>1</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D33" s="2">
         <v>1</v>
       </c>
-      <c r="E30" s="2">
-        <v>8.2640965779622391E-2</v>
-      </c>
-      <c r="F30" s="2">
-        <v>8.5988362630208329E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+      <c r="E33" s="2">
+        <v>0.91817728678385413</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.90956624348958337</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="2">
-        <v>7.6744136666800356E-2</v>
-      </c>
-      <c r="D31" s="2">
-        <v>8.8690816632784233E-2</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0.62679481506347656</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0.69305229187011719</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="2">
-        <v>2.6765211162673112E-3</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1.6405208653747569E-5</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0.5033879280090332</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0.53494834899902344</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2">
+      <c r="H33" s="2"/>
+      <c r="I33" s="2">
+        <v>0.54947812696058862</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2">
+        <v>0.98660786946614587</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="2">
+        <v>5.7287448048757806E-3</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3.647689065087569E-3</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.42871427536010742</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.39409446716308588</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2">
+        <v>0.99945576985677087</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2">
         <v>9.4602194513613624E-2</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2">
         <v>0.64003916422526042</v>
       </c>
+      <c r="G35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.99963168523057777</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.43255665058422699</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.99998524983723958</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0.97475585937499998</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B27:F27"/>
+  <mergeCells count="6">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="M1:V1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
